--- a/src/main/resources/templates/signDurationTemplate.xlsx
+++ b/src/main/resources/templates/signDurationTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室\毕设\LabSystem\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinpper\Desktop\oa\OA\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1CDF03-4F09-4B7D-A73C-2A37E931DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E488C8-686D-409F-A06F-462C48C0CD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="3210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9210" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,15 +45,23 @@
     <t>{.reportDate}</t>
   </si>
   <si>
-    <t>{.signDuration}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到时长 (h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.userName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.startDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.endDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签退时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,20 +387,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="4" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,12 +412,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -417,7 +429,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/signDurationTemplate.xlsx
+++ b/src/main/resources/templates/signDurationTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinpper\Desktop\oa\OA\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E488C8-686D-409F-A06F-462C48C0CD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D31807B-2880-4453-816E-C23FDBC05EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="3090" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="4590" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,19 +49,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.startDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.endDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签退时间</t>
+    <t>{.signDuration}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到时长(h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,7 +393,7 @@
     <col min="4" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,13 +404,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -430,9 +419,6 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
